--- a/data/trans_orig/P6904-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AE50487-DB6F-482E-AA9F-74E3832A6C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC1C672-0F0D-487E-B87F-B90764F7AA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47CA50A6-A4B0-4CA1-ADA3-77289D58F066}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9FD8B0B-B4DA-4C9A-ACF5-30DECD4E7CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1765 +77,1831 @@
     <t>66,39%</t>
   </si>
   <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>61,13%</t>
   </si>
   <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
   </si>
   <si>
     <t>63,1%</t>
   </si>
   <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>65,95%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>41,72%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F111FA-086D-42A9-A88C-627E89E69AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A9970-EB19-46C7-9088-A11EEB1EB985}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3334,10 +3400,10 @@
         <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3418,13 @@
         <v>45010</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3367,13 +3433,13 @@
         <v>20928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -3382,13 +3448,13 @@
         <v>65938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3522,13 @@
         <v>68503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3471,13 +3537,13 @@
         <v>31930</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -3486,13 +3552,13 @@
         <v>100433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3573,13 @@
         <v>40412</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3522,13 +3588,13 @@
         <v>17856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3537,13 +3603,13 @@
         <v>58268</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3677,13 @@
         <v>246734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -3626,13 +3692,13 @@
         <v>113916</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>345</v>
@@ -3641,13 +3707,13 @@
         <v>360650</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3728,13 @@
         <v>225571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -3677,13 +3743,13 @@
         <v>106205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -3692,13 +3758,13 @@
         <v>331777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE44D84E-5080-4F99-9D99-04861E6A5B27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D618D-08F8-4567-9610-3DCB997C5D07}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4105,13 @@
         <v>36820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4054,13 +4120,13 @@
         <v>13115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4069,13 +4135,13 @@
         <v>49934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4156,13 @@
         <v>19770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4105,13 +4171,13 @@
         <v>21200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -4120,13 +4186,13 @@
         <v>40971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4260,13 @@
         <v>15565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4209,13 +4275,13 @@
         <v>8042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4224,13 +4290,13 @@
         <v>23607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4311,13 @@
         <v>9740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4260,13 +4326,13 @@
         <v>9893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4275,13 +4341,13 @@
         <v>19633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4415,13 @@
         <v>46053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4364,13 +4430,13 @@
         <v>33959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4379,13 +4445,13 @@
         <v>80011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4466,13 @@
         <v>38301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4415,13 +4481,13 @@
         <v>23554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4430,13 +4496,13 @@
         <v>61855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,10 +4570,10 @@
         <v>14204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>103</v>
@@ -4519,13 +4585,13 @@
         <v>7639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4534,13 +4600,13 @@
         <v>21843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4621,13 @@
         <v>1965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4570,13 +4636,13 @@
         <v>4022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4585,13 +4651,13 @@
         <v>5987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4725,13 @@
         <v>24473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4674,13 +4740,13 @@
         <v>3948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -4689,13 +4755,13 @@
         <v>28422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4776,13 @@
         <v>18907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4725,13 +4791,13 @@
         <v>11236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -4740,13 +4806,13 @@
         <v>30142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4880,13 @@
         <v>22104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4829,13 +4895,13 @@
         <v>26465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4844,13 +4910,13 @@
         <v>48570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4931,13 @@
         <v>31405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4880,13 +4946,13 @@
         <v>19915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -4895,13 +4961,13 @@
         <v>51320</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4969,13 +5035,13 @@
         <v>19224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4984,13 +5050,13 @@
         <v>17214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -4999,13 +5065,13 @@
         <v>36438</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5086,13 @@
         <v>26924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -5035,13 +5101,13 @@
         <v>13458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5050,13 +5116,13 @@
         <v>40382</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5190,13 @@
         <v>178441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>99</v>
@@ -5139,13 +5205,13 @@
         <v>110383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>269</v>
@@ -5154,13 +5220,13 @@
         <v>288825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5241,13 @@
         <v>147014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -5190,13 +5256,13 @@
         <v>103278</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>239</v>
@@ -5205,13 +5271,13 @@
         <v>250291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C5E49-A8CF-4B9F-B4C5-DD0B519CA83B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4DD94-090B-4F73-9CD4-82E180E290C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5481,13 @@
         <v>23742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5430,13 +5496,13 @@
         <v>28465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5445,13 +5511,13 @@
         <v>52207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5532,13 @@
         <v>34835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5481,13 +5547,13 @@
         <v>12419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5496,13 +5562,13 @@
         <v>47254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5636,13 @@
         <v>62104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5585,13 +5651,13 @@
         <v>33928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -5600,13 +5666,13 @@
         <v>96032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5687,13 @@
         <v>20682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5636,13 +5702,13 @@
         <v>8769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5651,13 +5717,13 @@
         <v>29451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5791,13 @@
         <v>17625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5740,13 +5806,13 @@
         <v>8027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5755,13 +5821,13 @@
         <v>25652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5842,13 @@
         <v>3629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5791,13 +5857,13 @@
         <v>4474</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5806,13 +5872,13 @@
         <v>8103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5946,13 @@
         <v>22378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5895,13 +5961,13 @@
         <v>19648</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5910,13 +5976,13 @@
         <v>42026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5997,13 @@
         <v>10087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5946,13 +6012,13 @@
         <v>10287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -5961,13 +6027,13 @@
         <v>20374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6101,13 @@
         <v>8472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6050,10 +6116,10 @@
         <v>4830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>103</v>
@@ -6065,13 +6131,13 @@
         <v>13302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6152,13 @@
         <v>6398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6101,13 +6167,13 @@
         <v>941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6116,13 +6182,13 @@
         <v>7339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6256,13 @@
         <v>7928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6205,10 +6271,10 @@
         <v>6486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>103</v>
@@ -6220,13 +6286,13 @@
         <v>14413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6307,13 @@
         <v>14506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6256,13 +6322,13 @@
         <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -6271,13 +6337,13 @@
         <v>15447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6411,13 @@
         <v>51698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -6360,13 +6426,13 @@
         <v>32618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6375,13 +6441,13 @@
         <v>84316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6462,13 @@
         <v>26644</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -6411,13 +6477,13 @@
         <v>23064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -6426,13 +6492,13 @@
         <v>49708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6566,13 @@
         <v>14494</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6515,13 +6581,13 @@
         <v>11359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6530,13 +6596,13 @@
         <v>25853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6617,13 @@
         <v>24780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>40</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6566,13 +6632,13 @@
         <v>10041</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -6581,13 +6647,13 @@
         <v>34821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6721,13 @@
         <v>208440</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -6670,13 +6736,13 @@
         <v>145362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>331</v>
@@ -6685,13 +6751,13 @@
         <v>353802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6772,13 @@
         <v>141561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6721,13 +6787,13 @@
         <v>70936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -6736,13 +6802,13 @@
         <v>212497</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70933235-F852-4D4F-9E46-9B2F2BB7082E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C2C3AD-CDE6-41CA-A7EF-A03DB6A9F91E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6946,13 +7012,13 @@
         <v>11855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -6961,13 +7027,13 @@
         <v>12475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6976,13 +7042,13 @@
         <v>24330</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7063,13 @@
         <v>8716</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7012,13 +7078,13 @@
         <v>2368</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -7027,13 +7093,13 @@
         <v>11084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7167,13 @@
         <v>25629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -7116,13 +7182,13 @@
         <v>25511</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -7131,13 +7197,13 @@
         <v>51141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>475</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7218,13 @@
         <v>20372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -7167,13 +7233,13 @@
         <v>23110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -7182,13 +7248,13 @@
         <v>43481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7322,13 @@
         <v>26062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -7271,13 +7337,13 @@
         <v>27334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -7286,13 +7352,13 @@
         <v>53396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7373,13 @@
         <v>24668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -7322,13 +7388,13 @@
         <v>21587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>498</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -7337,13 +7403,13 @@
         <v>46255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7477,13 @@
         <v>31970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -7426,13 +7492,13 @@
         <v>51115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7441,13 +7507,13 @@
         <v>83085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7528,13 @@
         <v>10164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7477,13 +7543,13 @@
         <v>11044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -7492,13 +7558,13 @@
         <v>21208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7632,13 @@
         <v>9061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7581,13 +7647,13 @@
         <v>5398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7596,13 +7662,13 @@
         <v>14458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7683,13 @@
         <v>10381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -7632,13 +7698,13 @@
         <v>6583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7647,13 +7713,13 @@
         <v>16964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7787,13 @@
         <v>20198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>192</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7736,13 +7802,13 @@
         <v>18591</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>557</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -7751,13 +7817,13 @@
         <v>38789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7838,13 @@
         <v>12508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7787,13 +7853,13 @@
         <v>13880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -7802,13 +7868,13 @@
         <v>26388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7942,13 @@
         <v>42380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -7891,13 +7957,13 @@
         <v>49937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -7906,13 +7972,13 @@
         <v>92318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7993,13 @@
         <v>31997</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -7942,13 +8008,13 @@
         <v>25143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -7957,13 +8023,13 @@
         <v>57140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8031,13 +8097,13 @@
         <v>50651</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -8046,13 +8112,13 @@
         <v>36154</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8061,13 +8127,13 @@
         <v>86805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8148,13 @@
         <v>16405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -8097,13 +8163,13 @@
         <v>30982</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>86</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8112,13 +8178,13 @@
         <v>47386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8252,13 @@
         <v>217806</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>295</v>
@@ -8201,13 +8267,13 @@
         <v>226516</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="M28" s="7">
         <v>506</v>
@@ -8216,13 +8282,13 @@
         <v>444321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>611</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8303,13 @@
         <v>135212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -8252,13 +8318,13 @@
         <v>134695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="M29" s="7">
         <v>306</v>
@@ -8267,13 +8333,13 @@
         <v>269907</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6904-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC1C672-0F0D-487E-B87F-B90764F7AA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1198DAC-DE98-4740-ABFD-C1E51A013E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9FD8B0B-B4DA-4C9A-ACF5-30DECD4E7CEB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFA4CDCE-33E9-4ABB-B9FF-845894C389C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>66,39%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>61,13%</t>
   </si>
   <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>33,61%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>50,17%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>49,83%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>54,07%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1633 +254,1615 @@
     <t>41,68%</t>
   </si>
   <si>
-    <t>29,98%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>57,76%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
   </si>
   <si>
     <t>44,24%</t>
@@ -2313,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A9970-EB19-46C7-9088-A11EEB1EB985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80320F2-1A43-419E-9469-3A6918873F69}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3233,7 +3215,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3242,13 +3224,13 @@
         <v>22683</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3245,13 @@
         <v>24991</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3278,13 +3260,13 @@
         <v>8230</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -3293,13 +3275,13 @@
         <v>33220</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3349,13 @@
         <v>43438</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3382,13 +3364,13 @@
         <v>22607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -3397,13 +3379,13 @@
         <v>66045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3400,13 @@
         <v>45010</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3433,13 +3415,13 @@
         <v>20928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -3448,13 +3430,13 @@
         <v>65938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3522,13 +3504,13 @@
         <v>68503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3537,13 +3519,13 @@
         <v>31930</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -3552,13 +3534,13 @@
         <v>100433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3555,13 @@
         <v>40412</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3588,13 +3570,13 @@
         <v>17856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3603,13 +3585,13 @@
         <v>58268</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,10 +3662,10 @@
         <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -3692,13 +3674,13 @@
         <v>113916</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>345</v>
@@ -3707,13 +3689,13 @@
         <v>360650</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3710,13 @@
         <v>225571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -3743,13 +3725,13 @@
         <v>106205</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -3758,13 +3740,13 @@
         <v>331777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3802,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500D618D-08F8-4567-9610-3DCB997C5D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E5FE72-6A41-425B-AFD2-391742A5F9BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3948,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +3993,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4038,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4087,13 @@
         <v>36820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4120,13 +4102,13 @@
         <v>13115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4135,13 +4117,13 @@
         <v>49934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4138,13 @@
         <v>19770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4171,13 +4153,13 @@
         <v>21200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -4186,13 +4168,13 @@
         <v>40971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4242,13 @@
         <v>15565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4275,13 +4257,13 @@
         <v>8042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4290,13 +4272,13 @@
         <v>23607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4293,13 @@
         <v>9740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4326,13 +4308,13 @@
         <v>9893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4341,13 +4323,13 @@
         <v>19633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4397,13 @@
         <v>46053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4430,13 +4412,13 @@
         <v>33959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4445,13 +4427,13 @@
         <v>80011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4448,13 @@
         <v>38301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4481,13 +4463,13 @@
         <v>23554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4496,13 +4478,13 @@
         <v>61855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,10 +4552,10 @@
         <v>14204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>103</v>
@@ -4585,13 +4567,13 @@
         <v>7639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4600,13 +4582,13 @@
         <v>21843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4603,13 @@
         <v>1965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4636,13 +4618,13 @@
         <v>4022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4651,13 +4633,13 @@
         <v>5987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4707,13 @@
         <v>24473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4740,13 +4722,13 @@
         <v>3948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -4755,13 +4737,13 @@
         <v>28422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4758,13 @@
         <v>18907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4791,13 +4773,13 @@
         <v>11236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -4806,13 +4788,13 @@
         <v>30142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4850,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4880,13 +4862,13 @@
         <v>22104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4895,13 +4877,13 @@
         <v>26465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4910,13 +4892,13 @@
         <v>48570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4913,13 @@
         <v>31405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4946,13 +4928,13 @@
         <v>19915</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -4961,13 +4943,13 @@
         <v>51320</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5005,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5035,13 +5017,13 @@
         <v>19224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5050,13 +5032,13 @@
         <v>17214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -5065,13 +5047,13 @@
         <v>36438</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5068,13 @@
         <v>26924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -5101,13 +5083,13 @@
         <v>13458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5116,13 +5098,13 @@
         <v>40382</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5172,13 @@
         <v>178441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H28" s="7">
         <v>99</v>
@@ -5205,13 +5187,13 @@
         <v>110383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M28" s="7">
         <v>269</v>
@@ -5220,13 +5202,13 @@
         <v>288825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5223,13 @@
         <v>147014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -5256,13 +5238,13 @@
         <v>103278</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>239</v>
@@ -5271,13 +5253,13 @@
         <v>250291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5315,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4DD94-090B-4F73-9CD4-82E180E290C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE06331-2E0A-4505-8452-F2BE3FB49090}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5463,13 @@
         <v>23742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5496,13 +5478,13 @@
         <v>28465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5511,13 +5493,13 @@
         <v>52207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5514,13 @@
         <v>34835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5547,13 +5529,13 @@
         <v>12419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5562,13 +5544,13 @@
         <v>47254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5618,13 @@
         <v>62104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5651,13 +5633,13 @@
         <v>33928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -5666,13 +5648,13 @@
         <v>96032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5669,13 @@
         <v>20682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5702,13 +5684,13 @@
         <v>8769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5717,13 +5699,13 @@
         <v>29451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5773,13 @@
         <v>17625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5806,13 +5788,13 @@
         <v>8027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5821,13 +5803,13 @@
         <v>25652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5824,13 @@
         <v>3629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5857,13 +5839,13 @@
         <v>4474</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5872,13 +5854,13 @@
         <v>8103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5928,13 @@
         <v>22378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5961,13 +5943,13 @@
         <v>19648</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5976,13 +5958,13 @@
         <v>42026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5979,13 @@
         <v>10087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -6012,13 +5994,13 @@
         <v>10287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -6027,13 +6009,13 @@
         <v>20374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6083,13 @@
         <v>8472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6116,10 +6098,10 @@
         <v>4830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>103</v>
@@ -6131,13 +6113,13 @@
         <v>13302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6134,13 @@
         <v>6398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6167,13 +6149,13 @@
         <v>941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6182,13 +6164,13 @@
         <v>7339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6238,13 @@
         <v>7928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6271,10 +6253,10 @@
         <v>6486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>103</v>
@@ -6286,13 +6268,13 @@
         <v>14413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6289,13 @@
         <v>14506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6322,13 +6304,13 @@
         <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -6337,13 +6319,13 @@
         <v>15447</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6411,13 +6393,13 @@
         <v>51698</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -6426,13 +6408,13 @@
         <v>32618</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6441,13 +6423,13 @@
         <v>84316</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6444,13 @@
         <v>26644</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -6477,13 +6459,13 @@
         <v>23064</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -6492,13 +6474,13 @@
         <v>49708</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,7 +6536,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6566,13 +6548,13 @@
         <v>14494</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6581,13 +6563,13 @@
         <v>11359</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6596,13 +6578,13 @@
         <v>25853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6599,13 @@
         <v>24780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6632,13 +6614,13 @@
         <v>10041</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -6647,13 +6629,13 @@
         <v>34821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>216</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6703,13 @@
         <v>208440</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -6736,13 +6718,13 @@
         <v>145362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>331</v>
@@ -6751,13 +6733,13 @@
         <v>353802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6754,13 @@
         <v>141561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6787,13 +6769,13 @@
         <v>70936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -6802,13 +6784,13 @@
         <v>212497</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6846,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C2C3AD-CDE6-41CA-A7EF-A03DB6A9F91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD223040-A311-461B-968C-2FB24F227950}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +6994,13 @@
         <v>11855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -7027,13 +7009,13 @@
         <v>12475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -7042,13 +7024,13 @@
         <v>24330</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7045,13 @@
         <v>8716</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7078,13 +7060,13 @@
         <v>2368</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -7093,13 +7075,13 @@
         <v>11084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7149,13 @@
         <v>25629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -7182,13 +7164,13 @@
         <v>25511</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -7197,13 +7179,13 @@
         <v>51141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7200,13 @@
         <v>20372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -7233,13 +7215,13 @@
         <v>23110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -7248,13 +7230,13 @@
         <v>43481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7304,13 @@
         <v>26062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -7337,13 +7319,13 @@
         <v>27334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -7352,13 +7334,13 @@
         <v>53396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7355,13 @@
         <v>24668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -7388,13 +7370,13 @@
         <v>21587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -7403,13 +7385,13 @@
         <v>46255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7459,13 @@
         <v>31970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -7492,13 +7474,13 @@
         <v>51115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7507,13 +7489,13 @@
         <v>83085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7510,13 @@
         <v>10164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7543,13 +7525,13 @@
         <v>11044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -7558,13 +7540,13 @@
         <v>21208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7614,13 @@
         <v>9061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7647,13 +7629,13 @@
         <v>5398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7662,13 +7644,13 @@
         <v>14458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7665,13 @@
         <v>10381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -7698,13 +7680,13 @@
         <v>6583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7713,13 +7695,13 @@
         <v>16964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7769,13 @@
         <v>20198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7802,13 +7784,13 @@
         <v>18591</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -7817,13 +7799,13 @@
         <v>38789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>560</v>
+        <v>46</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7820,13 @@
         <v>12508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>556</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7853,13 +7835,13 @@
         <v>13880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -7868,13 +7850,13 @@
         <v>26388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>36</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,7 +7912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7942,13 +7924,13 @@
         <v>42380</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -7957,13 +7939,13 @@
         <v>49937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -7972,13 +7954,13 @@
         <v>92318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7975,13 @@
         <v>31997</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -8008,13 +7990,13 @@
         <v>25143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -8023,13 +8005,13 @@
         <v>57140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8097,13 +8079,13 @@
         <v>50651</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -8112,13 +8094,13 @@
         <v>36154</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8127,13 +8109,13 @@
         <v>86805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8130,13 @@
         <v>16405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -8163,13 +8145,13 @@
         <v>30982</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8178,13 +8160,13 @@
         <v>47386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8234,13 @@
         <v>217806</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>295</v>
@@ -8267,13 +8249,13 @@
         <v>226516</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>506</v>
@@ -8282,13 +8264,13 @@
         <v>444321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8285,13 @@
         <v>135212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -8318,13 +8300,13 @@
         <v>134695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>306</v>
@@ -8333,13 +8315,13 @@
         <v>269907</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8377,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6904-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1198DAC-DE98-4740-ABFD-C1E51A013E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAB43C3-3300-49AF-987F-C34253C2638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CFA4CDCE-33E9-4ABB-B9FF-845894C389C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCA125C0-E5C2-4C15-BEAA-A815B0FACC05}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>61,13%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>33,61%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1750 +140,1702 @@
     <t>50,17%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>34,12%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80320F2-1A43-419E-9469-3A6918873F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CFD42-97F2-4E01-8DB1-21D483FE078D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3215,7 +3167,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3224,13 +3176,13 @@
         <v>22683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3197,13 @@
         <v>24991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3260,13 +3212,13 @@
         <v>8230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -3275,13 +3227,13 @@
         <v>33220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3289,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3349,13 +3301,13 @@
         <v>43438</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3364,13 +3316,13 @@
         <v>22607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -3379,13 +3331,13 @@
         <v>66045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3352,13 @@
         <v>45010</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3415,13 +3367,13 @@
         <v>20928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -3430,13 +3382,13 @@
         <v>65938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,7 +3444,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3504,13 +3456,13 @@
         <v>68503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3519,13 +3471,13 @@
         <v>31930</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -3534,13 +3486,13 @@
         <v>100433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3507,13 @@
         <v>40412</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3570,13 +3522,13 @@
         <v>17856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3585,10 +3537,10 @@
         <v>58268</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>159</v>
@@ -3659,13 +3611,13 @@
         <v>246734</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -3674,13 +3626,13 @@
         <v>113916</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="M28" s="7">
         <v>345</v>
@@ -3689,13 +3641,13 @@
         <v>360650</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3662,13 @@
         <v>225571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -3725,13 +3677,13 @@
         <v>106205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -3740,13 +3692,13 @@
         <v>331777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3754,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E5FE72-6A41-425B-AFD2-391742A5F9BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BBDA31-53C8-48FD-8F51-F8E6F0E22E82}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3900,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +3945,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +3990,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4039,13 @@
         <v>36820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4102,13 +4054,13 @@
         <v>13115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4117,13 +4069,13 @@
         <v>49934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4090,13 @@
         <v>19770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4153,13 +4105,13 @@
         <v>21200</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -4168,13 +4120,13 @@
         <v>40971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4194,13 @@
         <v>15565</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4257,13 +4209,13 @@
         <v>8042</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4272,13 +4224,13 @@
         <v>23607</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4245,13 @@
         <v>9740</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4308,13 +4260,13 @@
         <v>9893</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4323,13 +4275,13 @@
         <v>19633</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4349,13 @@
         <v>46053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4412,13 +4364,13 @@
         <v>33959</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4427,13 +4379,13 @@
         <v>80011</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4400,13 @@
         <v>38301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4463,13 +4415,13 @@
         <v>23554</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4478,13 +4430,13 @@
         <v>61855</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,10 +4504,10 @@
         <v>14204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>103</v>
@@ -4567,13 +4519,13 @@
         <v>7639</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4582,13 +4534,13 @@
         <v>21843</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4555,13 @@
         <v>1965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4618,13 +4570,13 @@
         <v>4022</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4633,13 +4585,13 @@
         <v>5987</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4659,13 @@
         <v>24473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4722,13 +4674,13 @@
         <v>3948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -4737,13 +4689,13 @@
         <v>28422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4710,13 @@
         <v>18907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4773,13 +4725,13 @@
         <v>11236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -4788,13 +4740,13 @@
         <v>30142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4802,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4862,13 +4814,13 @@
         <v>22104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4877,13 +4829,13 @@
         <v>26465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4892,13 +4844,13 @@
         <v>48570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4865,13 @@
         <v>31405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4928,13 +4880,13 @@
         <v>19915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -4943,13 +4895,13 @@
         <v>51320</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +4957,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5017,13 +4969,13 @@
         <v>19224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5032,13 +4984,13 @@
         <v>17214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -5047,13 +4999,13 @@
         <v>36438</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5020,13 @@
         <v>26924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -5083,13 +5035,13 @@
         <v>13458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5098,13 +5050,13 @@
         <v>40382</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5124,13 @@
         <v>178441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H28" s="7">
         <v>99</v>
@@ -5187,13 +5139,13 @@
         <v>110383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M28" s="7">
         <v>269</v>
@@ -5202,13 +5154,13 @@
         <v>288825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5175,13 @@
         <v>147014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -5238,13 +5190,13 @@
         <v>103278</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>239</v>
@@ -5253,13 +5205,13 @@
         <v>250291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5267,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE06331-2E0A-4505-8452-F2BE3FB49090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A4E53D-C9AD-4CF9-BD98-EF036CEB74FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5415,13 @@
         <v>23742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5478,13 +5430,13 @@
         <v>28465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5493,13 +5445,13 @@
         <v>52207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5466,13 @@
         <v>34835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5529,13 +5481,13 @@
         <v>12419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5544,13 +5496,13 @@
         <v>47254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5570,13 @@
         <v>62104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5633,13 +5585,13 @@
         <v>33928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -5648,13 +5600,13 @@
         <v>96032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5621,13 @@
         <v>20682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5684,13 +5636,13 @@
         <v>8769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5699,13 +5651,13 @@
         <v>29451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5725,13 @@
         <v>17625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5788,13 +5740,13 @@
         <v>8027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5803,13 +5755,13 @@
         <v>25652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5776,13 @@
         <v>3629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5839,13 +5791,13 @@
         <v>4474</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5854,13 +5806,13 @@
         <v>8103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5880,13 @@
         <v>22378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5943,13 +5895,13 @@
         <v>19648</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5958,13 +5910,13 @@
         <v>42026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5931,13 @@
         <v>10087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5994,13 +5946,13 @@
         <v>10287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -6009,13 +5961,13 @@
         <v>20374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6035,13 @@
         <v>8472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6098,10 +6050,10 @@
         <v>4830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>103</v>
@@ -6113,13 +6065,13 @@
         <v>13302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6086,13 @@
         <v>6398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6149,13 +6101,13 @@
         <v>941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6164,13 +6116,13 @@
         <v>7339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6190,13 @@
         <v>7928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6253,10 +6205,10 @@
         <v>6486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>103</v>
@@ -6268,13 +6220,13 @@
         <v>14413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6241,13 @@
         <v>14506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6304,13 +6256,13 @@
         <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -6319,13 +6271,13 @@
         <v>15447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,7 +6333,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6393,13 +6345,13 @@
         <v>51698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -6408,13 +6360,13 @@
         <v>32618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6423,13 +6375,13 @@
         <v>84316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6396,13 @@
         <v>26644</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -6459,13 +6411,13 @@
         <v>23064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -6474,13 +6426,13 @@
         <v>49708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6488,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6500,13 @@
         <v>14494</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6563,13 +6515,13 @@
         <v>11359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6578,13 +6530,13 @@
         <v>25853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6551,13 @@
         <v>24780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6614,13 +6566,13 @@
         <v>10041</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -6629,13 +6581,13 @@
         <v>34821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6655,13 @@
         <v>208440</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>250</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -6718,13 +6670,13 @@
         <v>145362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="M28" s="7">
         <v>331</v>
@@ -6733,13 +6685,13 @@
         <v>353802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6706,13 @@
         <v>141561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6769,13 +6721,13 @@
         <v>70936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -6784,13 +6736,13 @@
         <v>212497</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6798,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD223040-A311-461B-968C-2FB24F227950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174EFD6-5DEB-40F0-B6C2-E59E8945F6C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +6946,13 @@
         <v>11855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -7009,13 +6961,13 @@
         <v>12475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -7024,13 +6976,13 @@
         <v>24330</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +6997,13 @@
         <v>8716</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -7060,13 +7012,13 @@
         <v>2368</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -7075,13 +7027,13 @@
         <v>11084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7101,13 @@
         <v>25629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -7164,13 +7116,13 @@
         <v>25511</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -7179,13 +7131,13 @@
         <v>51141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7152,13 @@
         <v>20372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -7215,13 +7167,13 @@
         <v>23110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -7230,13 +7182,13 @@
         <v>43481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7256,13 @@
         <v>26062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -7319,13 +7271,13 @@
         <v>27334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -7334,13 +7286,13 @@
         <v>53396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7307,13 @@
         <v>24668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -7370,13 +7322,13 @@
         <v>21587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -7385,13 +7337,13 @@
         <v>46255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7411,13 @@
         <v>31970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -7474,13 +7426,13 @@
         <v>51115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7489,13 +7441,13 @@
         <v>83085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7462,13 @@
         <v>10164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -7525,13 +7477,13 @@
         <v>11044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -7540,13 +7492,13 @@
         <v>21208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7566,13 @@
         <v>9061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7629,13 +7581,13 @@
         <v>5398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7644,13 +7596,13 @@
         <v>14458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7617,13 @@
         <v>10381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -7680,13 +7632,13 @@
         <v>6583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7695,13 +7647,13 @@
         <v>16964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7721,13 @@
         <v>20198</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>548</v>
+        <v>192</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -7784,13 +7736,13 @@
         <v>18591</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>550</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -7799,13 +7751,13 @@
         <v>38789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>46</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7772,13 @@
         <v>12508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>557</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7835,13 +7787,13 @@
         <v>13880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>558</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -7850,13 +7802,13 @@
         <v>26388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,7 +7864,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7924,13 +7876,13 @@
         <v>42380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -7939,13 +7891,13 @@
         <v>49937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -7954,13 +7906,13 @@
         <v>92318</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7927,13 @@
         <v>31997</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -7990,13 +7942,13 @@
         <v>25143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -8005,13 +7957,13 @@
         <v>57140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,7 +8019,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8079,13 +8031,13 @@
         <v>50651</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -8094,13 +8046,13 @@
         <v>36154</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8109,13 +8061,13 @@
         <v>86805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8082,13 @@
         <v>16405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -8145,13 +8097,13 @@
         <v>30982</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>86</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8160,13 +8112,13 @@
         <v>47386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8186,13 @@
         <v>217806</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>295</v>
@@ -8249,13 +8201,13 @@
         <v>226516</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>506</v>
@@ -8264,13 +8216,13 @@
         <v>444321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>392</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8237,13 @@
         <v>135212</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -8300,13 +8252,13 @@
         <v>134695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>306</v>
@@ -8315,13 +8267,13 @@
         <v>269907</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8329,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6904-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCAB43C3-3300-49AF-987F-C34253C2638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{776B336E-99FE-4CEC-8ED0-1081E29A6A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCA125C0-E5C2-4C15-BEAA-A815B0FACC05}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBF49F91-D9E6-4BC5-B364-D8B2742F67EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -569,7 +569,58 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>65,06%</t>
@@ -674,52 +725,58 @@
     <t>29,16%</t>
   </si>
   <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
   </si>
   <si>
     <t>87,85%</t>
@@ -1010,9 +1067,6 @@
     <t>75,02%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
     <t>83,57%</t>
   </si>
   <si>
@@ -1037,9 +1091,6 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
     <t>20,54%</t>
   </si>
   <si>
@@ -1262,9 +1313,6 @@
     <t>76,16%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
     <t>70,42%</t>
   </si>
   <si>
@@ -1286,9 +1334,6 @@
     <t>45,92%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
     <t>29,58%</t>
   </si>
   <si>
@@ -1394,268 +1439,274 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>42,63%</t>
@@ -1664,19 +1715,25 @@
     <t>70,92%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>29,08%</t>
@@ -1685,157 +1742,163 @@
     <t>57,37%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CFD42-97F2-4E01-8DB1-21D483FE078D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F08B25-24DC-4B12-83D9-92B105737DC9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3778,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BBDA31-53C8-48FD-8F51-F8E6F0E22E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FACBCCF-F634-43D9-8931-624E39D7FA16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3896,43 +3959,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23137</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18517</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41654</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,43 +4010,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16357</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9461</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25817</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,43 +4061,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39494</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27978</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="N6" s="7">
+        <v>67471</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4120,13 @@
         <v>36820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4054,13 +4135,13 @@
         <v>13115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4069,13 +4150,13 @@
         <v>49934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4171,13 @@
         <v>19770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4105,13 +4186,13 @@
         <v>21200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
@@ -4120,13 +4201,13 @@
         <v>40971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4275,13 @@
         <v>15565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4209,13 +4290,13 @@
         <v>8042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4224,13 +4305,13 @@
         <v>23607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4326,13 @@
         <v>9740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4260,13 +4341,13 @@
         <v>9893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4275,10 +4356,10 @@
         <v>19633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>63</v>
@@ -4343,49 +4424,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>46053</v>
+        <v>22915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>33959</v>
+        <v>15442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>80011</v>
+        <v>38358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,49 +4475,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>38301</v>
+        <v>21945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>23554</v>
+        <v>14093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>61855</v>
+        <v>36037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>84354</v>
+        <v>44860</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4460,10 +4541,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>57513</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4475,10 +4556,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>141866</v>
+        <v>74395</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4504,10 +4585,10 @@
         <v>14204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>103</v>
@@ -4519,13 +4600,13 @@
         <v>7639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4534,13 +4615,13 @@
         <v>21843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4636,13 @@
         <v>1965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4570,13 +4651,13 @@
         <v>4022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4585,13 +4666,13 @@
         <v>5987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4740,13 @@
         <v>24473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4674,10 +4755,10 @@
         <v>3948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>23</v>
@@ -4689,13 +4770,13 @@
         <v>28422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4791,13 @@
         <v>18907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4725,13 +4806,13 @@
         <v>11236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -4740,10 +4821,10 @@
         <v>30142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>150</v>
@@ -4814,13 +4895,13 @@
         <v>22104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4829,13 +4910,13 @@
         <v>26465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4844,13 +4925,13 @@
         <v>48570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4946,13 @@
         <v>31405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4880,13 +4961,13 @@
         <v>19915</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -4895,13 +4976,13 @@
         <v>51320</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5050,13 @@
         <v>19224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4987,10 +5068,10 @@
         <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -4999,13 +5080,13 @@
         <v>36438</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5101,13 @@
         <v>26924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -5038,10 +5119,10 @@
         <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5050,13 +5131,13 @@
         <v>40382</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5205,13 @@
         <v>178441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="H28" s="7">
         <v>99</v>
@@ -5139,13 +5220,13 @@
         <v>110383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>269</v>
@@ -5154,10 +5235,10 @@
         <v>288825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>120</v>
@@ -5175,13 +5256,13 @@
         <v>147014</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -5190,13 +5271,13 @@
         <v>103278</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>239</v>
@@ -5205,13 +5286,13 @@
         <v>250291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A4E53D-C9AD-4CF9-BD98-EF036CEB74FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BC1766-F729-49AB-AD57-EB837201EFBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5496,13 @@
         <v>23742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5430,13 +5511,13 @@
         <v>28465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5448,10 +5529,10 @@
         <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5547,13 @@
         <v>34835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5481,13 +5562,13 @@
         <v>12419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -5499,10 +5580,10 @@
         <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5651,13 @@
         <v>62104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5585,13 +5666,13 @@
         <v>33928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -5600,13 +5681,13 @@
         <v>96032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5702,13 @@
         <v>20682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -5636,13 +5717,13 @@
         <v>8769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5651,13 +5732,13 @@
         <v>29451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5806,13 @@
         <v>17625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5740,13 +5821,13 @@
         <v>8027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5755,13 +5836,13 @@
         <v>25652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5857,13 @@
         <v>3629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5791,13 +5872,13 @@
         <v>4474</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -5806,13 +5887,13 @@
         <v>8103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5961,13 @@
         <v>22378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5895,13 +5976,13 @@
         <v>19648</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -5910,13 +5991,13 @@
         <v>42026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +6012,13 @@
         <v>10087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -5946,13 +6027,13 @@
         <v>10287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -5961,13 +6042,13 @@
         <v>20374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6116,13 @@
         <v>8472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6050,10 +6131,10 @@
         <v>4830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>103</v>
@@ -6065,13 +6146,13 @@
         <v>13302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6167,13 @@
         <v>6398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6101,13 +6182,13 @@
         <v>941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6116,13 +6197,13 @@
         <v>7339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6271,13 @@
         <v>7928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6205,10 +6286,10 @@
         <v>6486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>103</v>
@@ -6220,13 +6301,13 @@
         <v>14413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6322,13 @@
         <v>14506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6256,13 +6337,13 @@
         <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -6271,13 +6352,13 @@
         <v>15447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6426,13 @@
         <v>51698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -6360,13 +6441,13 @@
         <v>32618</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6375,13 +6456,13 @@
         <v>84316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6477,13 @@
         <v>26644</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -6411,13 +6492,13 @@
         <v>23064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -6426,13 +6507,13 @@
         <v>49708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,10 +6584,10 @@
         <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6515,13 +6596,13 @@
         <v>11359</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6530,13 +6611,13 @@
         <v>25853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,10 +6635,10 @@
         <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6566,13 +6647,13 @@
         <v>10041</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -6581,13 +6662,13 @@
         <v>34821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6736,13 @@
         <v>208440</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -6670,13 +6751,13 @@
         <v>145362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>331</v>
@@ -6685,13 +6766,13 @@
         <v>353802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6787,13 @@
         <v>141561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6721,13 +6802,13 @@
         <v>70936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="M29" s="7">
         <v>198</v>
@@ -6736,13 +6817,13 @@
         <v>212497</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174EFD6-5DEB-40F0-B6C2-E59E8945F6C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A5770-0908-4E57-BD70-3484D9B331F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6943,46 +7024,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>11855</v>
+        <v>13888</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>12475</v>
+        <v>13092</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>24330</v>
+        <v>26980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,46 +7075,46 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>8716</v>
+        <v>10181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>2368</v>
+        <v>2663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>11084</v>
+        <v>12844</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +7126,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7060,7 +7141,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7075,7 +7156,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7098,46 +7179,46 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>25629</v>
+        <v>26388</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>25511</v>
+        <v>23809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>472</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>51141</v>
+        <v>50197</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,46 +7230,46 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>20372</v>
+        <v>19892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>23110</v>
+        <v>21634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>43481</v>
+        <v>41526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,7 +7281,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7215,7 +7296,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7230,7 +7311,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7253,46 +7334,46 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>26062</v>
+        <v>25360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>27334</v>
+        <v>25687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>53396</v>
+        <v>51048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,46 +7385,46 @@
         <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>24668</v>
+        <v>24135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>21587</v>
+        <v>20239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>46255</v>
+        <v>44374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,7 +7436,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7370,7 +7451,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7385,7 +7466,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7408,46 +7489,46 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>31970</v>
+        <v>30848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>51115</v>
+        <v>70554</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>83085</v>
+        <v>101402</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,46 +7540,46 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>10164</v>
+        <v>9505</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>11044</v>
+        <v>10098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>21208</v>
+        <v>19603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7591,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7525,7 +7606,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7540,7 +7621,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7563,46 +7644,46 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>9061</v>
+        <v>8326</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>5398</v>
+        <v>4964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>14458</v>
+        <v>13289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,46 +7695,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>10381</v>
+        <v>9431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>6583</v>
+        <v>6022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>16964</v>
+        <v>15454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,7 +7746,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7680,7 +7761,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7695,7 +7776,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7718,46 +7799,46 @@
         <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>20198</v>
+        <v>19536</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>192</v>
+        <v>553</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>18591</v>
+        <v>17306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>38789</v>
+        <v>36842</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,46 +7850,46 @@
         <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>12508</v>
+        <v>12080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>13880</v>
+        <v>12909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
       </c>
       <c r="N20" s="7">
-        <v>26388</v>
+        <v>24989</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7901,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7835,7 +7916,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7850,7 +7931,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7873,46 +7954,46 @@
         <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>42380</v>
+        <v>41454</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>49937</v>
+        <v>46589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
       </c>
       <c r="N22" s="7">
-        <v>92318</v>
+        <v>88043</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,46 +8005,46 @@
         <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>31997</v>
+        <v>31724</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>25143</v>
+        <v>23938</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
       </c>
       <c r="N23" s="7">
-        <v>57140</v>
+        <v>55662</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,7 +8056,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7990,7 +8071,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8005,7 +8086,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8028,46 +8109,46 @@
         <v>43</v>
       </c>
       <c r="D25" s="7">
-        <v>50651</v>
+        <v>42975</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>36154</v>
+        <v>29258</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>591</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
       </c>
       <c r="N25" s="7">
-        <v>86805</v>
+        <v>72233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>574</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,46 +8160,46 @@
         <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>16405</v>
+        <v>13782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
       </c>
       <c r="I26" s="7">
-        <v>30982</v>
+        <v>25452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>86</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
       </c>
       <c r="N26" s="7">
-        <v>47386</v>
+        <v>39234</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,7 +8211,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8145,7 +8226,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8160,7 +8241,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8183,46 +8264,46 @@
         <v>211</v>
       </c>
       <c r="D28" s="7">
-        <v>217806</v>
+        <v>208774</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>295</v>
       </c>
       <c r="I28" s="7">
-        <v>226516</v>
+        <v>231260</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="M28" s="7">
         <v>506</v>
       </c>
       <c r="N28" s="7">
-        <v>444321</v>
+        <v>440034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>610</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,46 +8315,46 @@
         <v>127</v>
       </c>
       <c r="D29" s="7">
-        <v>135212</v>
+        <v>130731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>591</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
       </c>
       <c r="I29" s="7">
-        <v>134695</v>
+        <v>122955</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="M29" s="7">
         <v>306</v>
       </c>
       <c r="N29" s="7">
-        <v>269907</v>
+        <v>253686</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,7 +8366,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8300,7 +8381,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8315,7 +8396,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
